--- a/example/resultats/Maire 2024/111101200110/111101200110.xlsx
+++ b/example/resultats/Maire 2024/111101200110/111101200110.xlsx
@@ -421,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -584,7 +584,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="3" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -610,12 +610,8 @@
       <c r="I13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="5"/>
@@ -625,12 +621,8 @@
       <c r="I14" s="3"/>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B15" s="3" t="n">
-        <v>2</v>
-      </c>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="5"/>
